--- a/Section06/activities/PivotTable_exercise.xlsx
+++ b/Section06/activities/PivotTable_exercise.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\DAP Savvy Coders -20221014T215052Z-001\DAP Savvy Coders\Excel Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section06\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EF3E8A-316A-4FFD-AEEC-E8BFA4784351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF262DB0-0EDD-49A7-B93C-634631972971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
     <sheet name="Expenses" sheetId="15" r:id="rId2"/>
+    <sheet name="Homework Instructions" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Instructions!$A$1:$B$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Homework Instructions'!$A$1:$B$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Instructions!$A$1:$B$16</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Homework Instructions'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Instructions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="153">
   <si>
     <t>Step</t>
   </si>
@@ -472,10 +475,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rename the new sheet as: Payments
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete steps 6 to 9 for the Payments sheet.
 </t>
   </si>
   <si>
@@ -540,7 +539,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Change the formatting style of the pivot table to Pivot Style Medium 20 </t>
+      <t xml:space="preserve">Change the formatting style of the pivot table to Pivot Style Medium 20 
+</t>
     </r>
     <r>
       <rPr>
@@ -560,6 +560,9 @@
       <t xml:space="preserve">.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Instructions to insert a Pivot Table</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,12 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +784,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -862,15 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1195,7 +1183,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1211,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="76.8" x14ac:dyDescent="0.25">
@@ -1219,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.25">
@@ -1227,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
@@ -1270,7 +1258,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1291,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -1310,7 +1298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1326,68 +1314,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1337,7 @@
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1362,7 @@
       <c r="E1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
@@ -7484,4 +7416,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE6F324-33A5-4845-9942-D203D37AF40B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="87.21875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="77.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>